--- a/Documents/LOSS_REPORT.xlsx
+++ b/Documents/LOSS_REPORT.xlsx
@@ -441,11 +441,12 @@
   <dimension ref="C2:H31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G14" sqref="G14"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="5" max="5" width="23.28515625" customWidth="1"/>
     <col min="6" max="6" width="15.28515625" customWidth="1"/>
     <col min="8" max="8" width="11" bestFit="1" customWidth="1"/>
   </cols>
